--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>16-03-2020</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -539,6 +544,9 @@
       <c r="U2" t="n">
         <v>16</v>
       </c>
+      <c r="V2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -606,6 +614,9 @@
       <c r="U3" t="n">
         <v>22</v>
       </c>
+      <c r="V3" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -673,6 +684,9 @@
       <c r="U4" t="n">
         <v>13</v>
       </c>
+      <c r="V4" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -740,6 +754,9 @@
       <c r="U5" t="n">
         <v>135</v>
       </c>
+      <c r="V5" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -807,6 +824,9 @@
       <c r="U6" t="n">
         <v>10</v>
       </c>
+      <c r="V6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -874,6 +894,9 @@
       <c r="U7" t="n">
         <v>149</v>
       </c>
+      <c r="V7" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -941,6 +964,9 @@
       <c r="U8" t="n">
         <v>554</v>
       </c>
+      <c r="V8" t="n">
+        <v>634</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1008,6 +1034,9 @@
       <c r="U9" t="n">
         <v>115</v>
       </c>
+      <c r="V9" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1075,6 +1104,9 @@
       <c r="U10" t="n">
         <v>36</v>
       </c>
+      <c r="V10" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1142,6 +1174,9 @@
       <c r="U11" t="n">
         <v>140</v>
       </c>
+      <c r="V11" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1209,6 +1244,9 @@
       <c r="U12" t="n">
         <v>17</v>
       </c>
+      <c r="V12" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1275,6 +1313,9 @@
       </c>
       <c r="U13" t="n">
         <v>136</v>
+      </c>
+      <c r="V13" t="n">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
           <t>17-03-2020</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>18-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -547,6 +552,9 @@
       <c r="V2" t="n">
         <v>17</v>
       </c>
+      <c r="W2" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -617,6 +625,9 @@
       <c r="V3" t="n">
         <v>24</v>
       </c>
+      <c r="W3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -687,6 +698,9 @@
       <c r="V4" t="n">
         <v>14</v>
       </c>
+      <c r="W4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -757,6 +771,9 @@
       <c r="V5" t="n">
         <v>173</v>
       </c>
+      <c r="W5" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -827,6 +844,9 @@
       <c r="V6" t="n">
         <v>10</v>
       </c>
+      <c r="W6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -897,6 +917,9 @@
       <c r="V7" t="n">
         <v>197</v>
       </c>
+      <c r="W7" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -967,6 +990,9 @@
       <c r="V8" t="n">
         <v>634</v>
       </c>
+      <c r="W8" t="n">
+        <v>728</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1037,6 +1063,9 @@
       <c r="V9" t="n">
         <v>151</v>
       </c>
+      <c r="W9" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1107,6 +1136,9 @@
       <c r="V10" t="n">
         <v>45</v>
       </c>
+      <c r="W10" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1177,6 +1209,9 @@
       <c r="V11" t="n">
         <v>173</v>
       </c>
+      <c r="W11" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1247,6 +1282,9 @@
       <c r="V12" t="n">
         <v>20</v>
       </c>
+      <c r="W12" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1316,6 +1354,9 @@
       </c>
       <c r="V13" t="n">
         <v>175</v>
+      </c>
+      <c r="W13" t="n">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>18-03-2020</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>19-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -555,6 +560,9 @@
       <c r="W2" t="n">
         <v>22</v>
       </c>
+      <c r="X2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -628,6 +636,9 @@
       <c r="W3" t="n">
         <v>30</v>
       </c>
+      <c r="X3" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -701,6 +712,9 @@
       <c r="W4" t="n">
         <v>18</v>
       </c>
+      <c r="X4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -774,6 +788,9 @@
       <c r="W5" t="n">
         <v>210</v>
       </c>
+      <c r="X5" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -847,6 +864,9 @@
       <c r="W6" t="n">
         <v>15</v>
       </c>
+      <c r="X6" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -920,6 +940,9 @@
       <c r="W7" t="n">
         <v>258</v>
       </c>
+      <c r="X7" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -993,6 +1016,9 @@
       <c r="W8" t="n">
         <v>728</v>
       </c>
+      <c r="X8" t="n">
+        <v>842</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1066,6 +1092,9 @@
       <c r="W9" t="n">
         <v>173</v>
       </c>
+      <c r="X9" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1139,6 +1168,9 @@
       <c r="W10" t="n">
         <v>58</v>
       </c>
+      <c r="X10" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1212,6 +1244,9 @@
       <c r="W11" t="n">
         <v>197</v>
       </c>
+      <c r="X11" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1285,6 +1320,9 @@
       <c r="W12" t="n">
         <v>26</v>
       </c>
+      <c r="X12" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1357,6 +1395,9 @@
       </c>
       <c r="W13" t="n">
         <v>232</v>
+      </c>
+      <c r="X13" t="n">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,11 @@
           <t>19-03-2020</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>20-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -563,6 +568,9 @@
       <c r="X2" t="n">
         <v>25</v>
       </c>
+      <c r="Y2" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -639,6 +647,9 @@
       <c r="X3" t="n">
         <v>36</v>
       </c>
+      <c r="Y3" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -715,6 +726,9 @@
       <c r="X4" t="n">
         <v>20</v>
       </c>
+      <c r="Y4" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -791,6 +805,9 @@
       <c r="X5" t="n">
         <v>240</v>
       </c>
+      <c r="Y5" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -867,6 +884,9 @@
       <c r="X6" t="n">
         <v>29</v>
       </c>
+      <c r="Y6" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -943,6 +963,9 @@
       <c r="X7" t="n">
         <v>291</v>
       </c>
+      <c r="Y7" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1019,6 +1042,9 @@
       <c r="X8" t="n">
         <v>842</v>
       </c>
+      <c r="Y8" t="n">
+        <v>971</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1095,6 +1121,9 @@
       <c r="X9" t="n">
         <v>244</v>
       </c>
+      <c r="Y9" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1171,6 +1200,9 @@
       <c r="X10" t="n">
         <v>73</v>
       </c>
+      <c r="Y10" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1247,6 +1279,9 @@
       <c r="X11" t="n">
         <v>237</v>
       </c>
+      <c r="Y11" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1323,6 +1358,9 @@
       <c r="X12" t="n">
         <v>31</v>
       </c>
+      <c r="Y12" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1398,6 +1436,9 @@
       </c>
       <c r="X13" t="n">
         <v>303</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
           <t>20-03-2020</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>21-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -571,6 +576,9 @@
       <c r="Y2" t="n">
         <v>32</v>
       </c>
+      <c r="Z2" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -650,6 +658,9 @@
       <c r="Y3" t="n">
         <v>41</v>
       </c>
+      <c r="Z3" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -729,6 +740,9 @@
       <c r="Y4" t="n">
         <v>22</v>
       </c>
+      <c r="Z4" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -808,6 +822,9 @@
       <c r="Y5" t="n">
         <v>303</v>
       </c>
+      <c r="Z5" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -887,6 +904,9 @@
       <c r="Y6" t="n">
         <v>33</v>
       </c>
+      <c r="Z6" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -966,6 +986,9 @@
       <c r="Y7" t="n">
         <v>357</v>
       </c>
+      <c r="Z7" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1045,6 +1068,9 @@
       <c r="Y8" t="n">
         <v>971</v>
       </c>
+      <c r="Z8" t="n">
+        <v>1139</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1124,6 +1150,9 @@
       <c r="Y9" t="n">
         <v>327</v>
       </c>
+      <c r="Z9" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1203,6 +1232,9 @@
       <c r="Y10" t="n">
         <v>98</v>
       </c>
+      <c r="Z10" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1282,6 +1314,9 @@
       <c r="Y11" t="n">
         <v>267</v>
       </c>
+      <c r="Z11" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1361,6 +1396,9 @@
       <c r="Y12" t="n">
         <v>36</v>
       </c>
+      <c r="Z12" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1439,6 +1477,9 @@
       </c>
       <c r="Y13" t="n">
         <v>395</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,11 @@
           <t>21-03-2020</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>22-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -579,6 +584,9 @@
       <c r="Z2" t="n">
         <v>38</v>
       </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -661,6 +669,9 @@
       <c r="Z3" t="n">
         <v>50</v>
       </c>
+      <c r="AA3" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -743,6 +754,9 @@
       <c r="Z4" t="n">
         <v>33</v>
       </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -825,6 +839,9 @@
       <c r="Z5" t="n">
         <v>362</v>
       </c>
+      <c r="AA5" t="n">
+        <v>421</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -907,6 +924,9 @@
       <c r="Z6" t="n">
         <v>46</v>
       </c>
+      <c r="AA6" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -989,6 +1009,9 @@
       <c r="Z7" t="n">
         <v>408</v>
       </c>
+      <c r="AA7" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1071,6 +1094,9 @@
       <c r="Z8" t="n">
         <v>1139</v>
       </c>
+      <c r="AA8" t="n">
+        <v>1358</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1153,6 +1179,9 @@
       <c r="Z9" t="n">
         <v>429</v>
       </c>
+      <c r="AA9" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1235,6 +1264,9 @@
       <c r="Z10" t="n">
         <v>161</v>
       </c>
+      <c r="AA10" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1317,6 +1349,9 @@
       <c r="Z11" t="n">
         <v>313</v>
       </c>
+      <c r="AA11" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1399,6 +1434,9 @@
       <c r="Z12" t="n">
         <v>46</v>
       </c>
+      <c r="AA12" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1480,6 +1518,9 @@
       </c>
       <c r="Z13" t="n">
         <v>469</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,11 @@
           <t>22-03-2020</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -587,6 +592,9 @@
       <c r="AA2" t="n">
         <v>41</v>
       </c>
+      <c r="AB2" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -672,6 +680,9 @@
       <c r="AA3" t="n">
         <v>57</v>
       </c>
+      <c r="AB3" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -757,6 +768,9 @@
       <c r="AA4" t="n">
         <v>34</v>
       </c>
+      <c r="AB4" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -842,6 +856,9 @@
       <c r="AA5" t="n">
         <v>421</v>
       </c>
+      <c r="AB5" t="n">
+        <v>502</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -927,6 +944,9 @@
       <c r="AA6" t="n">
         <v>56</v>
       </c>
+      <c r="AB6" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1012,6 +1032,9 @@
       <c r="AA7" t="n">
         <v>437</v>
       </c>
+      <c r="AB7" t="n">
+        <v>479</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1097,6 +1120,9 @@
       <c r="AA8" t="n">
         <v>1358</v>
       </c>
+      <c r="AB8" t="n">
+        <v>1508</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1182,6 +1208,9 @@
       <c r="AA9" t="n">
         <v>499</v>
       </c>
+      <c r="AB9" t="n">
+        <v>560</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1267,6 +1296,9 @@
       <c r="AA10" t="n">
         <v>187</v>
       </c>
+      <c r="AB10" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1352,6 +1384,9 @@
       <c r="AA11" t="n">
         <v>344</v>
       </c>
+      <c r="AB11" t="n">
+        <v>401</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1437,6 +1472,9 @@
       <c r="AA12" t="n">
         <v>48</v>
       </c>
+      <c r="AB12" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1521,6 +1559,9 @@
       </c>
       <c r="AA13" t="n">
         <v>567</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,11 @@
           <t>23-03-2020</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>24-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -595,6 +600,9 @@
       <c r="AB2" t="n">
         <v>48</v>
       </c>
+      <c r="AC2" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -683,6 +691,9 @@
       <c r="AB3" t="n">
         <v>64</v>
       </c>
+      <c r="AC3" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -771,6 +782,9 @@
       <c r="AB4" t="n">
         <v>39</v>
       </c>
+      <c r="AC4" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -859,6 +873,9 @@
       <c r="AB5" t="n">
         <v>502</v>
       </c>
+      <c r="AC5" t="n">
+        <v>576</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -947,6 +964,9 @@
       <c r="AB6" t="n">
         <v>67</v>
       </c>
+      <c r="AC6" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1035,6 +1055,9 @@
       <c r="AB7" t="n">
         <v>479</v>
       </c>
+      <c r="AC7" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1123,6 +1146,9 @@
       <c r="AB8" t="n">
         <v>1508</v>
       </c>
+      <c r="AC8" t="n">
+        <v>1685</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1211,6 +1237,9 @@
       <c r="AB9" t="n">
         <v>560</v>
       </c>
+      <c r="AC9" t="n">
+        <v>696</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1299,6 +1328,9 @@
       <c r="AB10" t="n">
         <v>216</v>
       </c>
+      <c r="AC10" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1387,6 +1419,9 @@
       <c r="AB11" t="n">
         <v>401</v>
       </c>
+      <c r="AC11" t="n">
+        <v>458</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1475,6 +1510,9 @@
       <c r="AB12" t="n">
         <v>54</v>
       </c>
+      <c r="AC12" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1562,6 +1600,9 @@
       </c>
       <c r="AB13" t="n">
         <v>627</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,11 @@
           <t>24-03-2020</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>25-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -603,6 +608,9 @@
       <c r="AC2" t="n">
         <v>54</v>
       </c>
+      <c r="AD2" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -694,6 +702,9 @@
       <c r="AC3" t="n">
         <v>71</v>
       </c>
+      <c r="AD3" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -785,6 +796,9 @@
       <c r="AC4" t="n">
         <v>41</v>
       </c>
+      <c r="AD4" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -876,6 +890,9 @@
       <c r="AC5" t="n">
         <v>576</v>
       </c>
+      <c r="AD5" t="n">
+        <v>675</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -967,6 +984,9 @@
       <c r="AC6" t="n">
         <v>67</v>
       </c>
+      <c r="AD6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1058,6 +1078,9 @@
       <c r="AC7" t="n">
         <v>670</v>
       </c>
+      <c r="AD7" t="n">
+        <v>765</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1149,6 +1172,9 @@
       <c r="AC8" t="n">
         <v>1685</v>
       </c>
+      <c r="AD8" t="n">
+        <v>1861</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1240,6 +1266,9 @@
       <c r="AC9" t="n">
         <v>696</v>
       </c>
+      <c r="AD9" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1331,6 +1360,9 @@
       <c r="AC10" t="n">
         <v>247</v>
       </c>
+      <c r="AD10" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1422,6 +1454,9 @@
       <c r="AC11" t="n">
         <v>458</v>
       </c>
+      <c r="AD11" t="n">
+        <v>547</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1513,6 +1548,9 @@
       <c r="AC12" t="n">
         <v>62</v>
       </c>
+      <c r="AD12" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1603,6 +1641,9 @@
       </c>
       <c r="AC13" t="n">
         <v>733</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,26 @@
           <t>25-03-2020</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>26-03-2020</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>27-03-2020</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>28-03-2020</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -611,6 +631,18 @@
       <c r="AD2" t="n">
         <v>59</v>
       </c>
+      <c r="AE2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>96</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -705,6 +737,18 @@
       <c r="AD3" t="n">
         <v>82</v>
       </c>
+      <c r="AE3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>105</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -799,6 +843,18 @@
       <c r="AD4" t="n">
         <v>51</v>
       </c>
+      <c r="AE4" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>96</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -893,6 +949,18 @@
       <c r="AD5" t="n">
         <v>675</v>
       </c>
+      <c r="AE5" t="n">
+        <v>797</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>926</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1058</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1235</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -987,6 +1055,18 @@
       <c r="AD6" t="n">
         <v>80</v>
       </c>
+      <c r="AE6" t="n">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>133</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1081,6 +1161,18 @@
       <c r="AD7" t="n">
         <v>765</v>
       </c>
+      <c r="AE7" t="n">
+        <v>858</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>943</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1073</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1168</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1175,6 +1267,18 @@
       <c r="AD8" t="n">
         <v>1861</v>
       </c>
+      <c r="AE8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2426</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2678</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2950</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1269,6 +1373,18 @@
       <c r="AD9" t="n">
         <v>825</v>
       </c>
+      <c r="AE9" t="n">
+        <v>982</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1175</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1335</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1484</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1363,6 +1479,18 @@
       <c r="AD10" t="n">
         <v>316</v>
       </c>
+      <c r="AE10" t="n">
+        <v>385</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>443</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>511</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>583</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1457,6 +1585,18 @@
       <c r="AD11" t="n">
         <v>547</v>
       </c>
+      <c r="AE11" t="n">
+        <v>628</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>716</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>797</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1551,6 +1691,18 @@
       <c r="AD12" t="n">
         <v>76</v>
       </c>
+      <c r="AE12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>108</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>119</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1644,6 +1796,18 @@
       </c>
       <c r="AD13" t="n">
         <v>862</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1015</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1217</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1470</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1625</v>
       </c>
     </row>
   </sheetData>
